--- a/Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC852014-3761-402B-A544-3A35BABC3C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLTOY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>HLTOY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4527500</v>
+        <v>4262100</v>
       </c>
       <c r="E8" s="3">
-        <v>4587400</v>
+        <v>4260100</v>
       </c>
       <c r="F8" s="3">
-        <v>4581300</v>
+        <v>4384800</v>
       </c>
       <c r="G8" s="3">
-        <v>4599500</v>
+        <v>4379000</v>
       </c>
       <c r="H8" s="3">
-        <v>4758700</v>
+        <v>4396400</v>
       </c>
       <c r="I8" s="3">
-        <v>5082900</v>
+        <v>4548700</v>
       </c>
       <c r="J8" s="3">
+        <v>4858600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5914000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>200400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>210000</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>193600</v>
+        <v>200700</v>
       </c>
       <c r="G9" s="3">
-        <v>152200</v>
+        <v>185000</v>
       </c>
       <c r="H9" s="3">
-        <v>145300</v>
+        <v>145500</v>
       </c>
       <c r="I9" s="3">
-        <v>1079700</v>
+        <v>138900</v>
       </c>
       <c r="J9" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1272100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>4327100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4377400</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>4387700</v>
+        <v>4184100</v>
       </c>
       <c r="G10" s="3">
-        <v>4447200</v>
+        <v>4194000</v>
       </c>
       <c r="H10" s="3">
-        <v>4613400</v>
+        <v>4250900</v>
       </c>
       <c r="I10" s="3">
-        <v>4003300</v>
+        <v>4409800</v>
       </c>
       <c r="J10" s="3">
+        <v>3826500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4641900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35100</v>
+        <v>-2500</v>
       </c>
       <c r="E14" s="3">
-        <v>-34000</v>
+        <v>44700</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>-20500</v>
       </c>
       <c r="G14" s="3">
-        <v>-15100</v>
+        <v>22300</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1030800</v>
+        <v>915000</v>
       </c>
       <c r="E15" s="3">
-        <v>1034600</v>
+        <v>985300</v>
       </c>
       <c r="F15" s="3">
-        <v>973600</v>
+        <v>988900</v>
       </c>
       <c r="G15" s="3">
-        <v>934800</v>
+        <v>930600</v>
       </c>
       <c r="H15" s="3">
-        <v>988900</v>
+        <v>893600</v>
       </c>
       <c r="I15" s="3">
-        <v>960600</v>
+        <v>945300</v>
       </c>
       <c r="J15" s="3">
+        <v>918200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1537900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4146600</v>
+        <v>3704000</v>
       </c>
       <c r="E17" s="3">
-        <v>4113300</v>
+        <v>3793700</v>
       </c>
       <c r="F17" s="3">
-        <v>4145500</v>
+        <v>3931700</v>
       </c>
       <c r="G17" s="3">
-        <v>3908000</v>
+        <v>3962500</v>
       </c>
       <c r="H17" s="3">
-        <v>4364900</v>
+        <v>3735400</v>
       </c>
       <c r="I17" s="3">
-        <v>4408600</v>
+        <v>4172200</v>
       </c>
       <c r="J17" s="3">
+        <v>4214000</v>
+      </c>
+      <c r="K17" s="3">
         <v>5500100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>380900</v>
+        <v>558100</v>
       </c>
       <c r="E18" s="3">
-        <v>474100</v>
+        <v>466400</v>
       </c>
       <c r="F18" s="3">
-        <v>435700</v>
+        <v>453200</v>
       </c>
       <c r="G18" s="3">
-        <v>691500</v>
+        <v>416500</v>
       </c>
       <c r="H18" s="3">
-        <v>393800</v>
+        <v>661000</v>
       </c>
       <c r="I18" s="3">
-        <v>674400</v>
+        <v>376400</v>
       </c>
       <c r="J18" s="3">
+        <v>644600</v>
+      </c>
+      <c r="K18" s="3">
         <v>413900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12400</v>
+        <v>2400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2500</v>
+        <v>-4400</v>
       </c>
       <c r="F20" s="3">
-        <v>38400</v>
+        <v>-2400</v>
       </c>
       <c r="G20" s="3">
-        <v>10600</v>
+        <v>36700</v>
       </c>
       <c r="H20" s="3">
-        <v>268000</v>
+        <v>10100</v>
       </c>
       <c r="I20" s="3">
-        <v>284200</v>
+        <v>256200</v>
       </c>
       <c r="J20" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K20" s="3">
         <v>61700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1469100</v>
+        <v>1410400</v>
       </c>
       <c r="E21" s="3">
-        <v>1506900</v>
+        <v>1406700</v>
       </c>
       <c r="F21" s="3">
-        <v>1448300</v>
+        <v>1442100</v>
       </c>
       <c r="G21" s="3">
-        <v>1637500</v>
+        <v>1386000</v>
       </c>
       <c r="H21" s="3">
-        <v>1651400</v>
+        <v>1566800</v>
       </c>
       <c r="I21" s="3">
-        <v>1919800</v>
+        <v>1580100</v>
       </c>
       <c r="J21" s="3">
+        <v>1836700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2014600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163600</v>
+        <v>96600</v>
       </c>
       <c r="E22" s="3">
-        <v>175400</v>
+        <v>156100</v>
       </c>
       <c r="F22" s="3">
-        <v>184800</v>
+        <v>167600</v>
       </c>
       <c r="G22" s="3">
-        <v>237900</v>
+        <v>176600</v>
       </c>
       <c r="H22" s="3">
-        <v>292300</v>
+        <v>227400</v>
       </c>
       <c r="I22" s="3">
-        <v>290300</v>
+        <v>279400</v>
       </c>
       <c r="J22" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K22" s="3">
         <v>340500</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>204800</v>
+        <v>463800</v>
       </c>
       <c r="E23" s="3">
-        <v>296300</v>
+        <v>306000</v>
       </c>
       <c r="F23" s="3">
-        <v>289300</v>
+        <v>283200</v>
       </c>
       <c r="G23" s="3">
-        <v>464100</v>
+        <v>276600</v>
       </c>
       <c r="H23" s="3">
-        <v>369500</v>
+        <v>443600</v>
       </c>
       <c r="I23" s="3">
-        <v>668300</v>
+        <v>353200</v>
       </c>
       <c r="J23" s="3">
+        <v>638700</v>
+      </c>
+      <c r="K23" s="3">
         <v>135100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>178100</v>
+        <v>186000</v>
       </c>
       <c r="E24" s="3">
-        <v>197700</v>
+        <v>165600</v>
       </c>
       <c r="F24" s="3">
-        <v>138300</v>
+        <v>188900</v>
       </c>
       <c r="G24" s="3">
-        <v>145400</v>
+        <v>132200</v>
       </c>
       <c r="H24" s="3">
-        <v>24500</v>
+        <v>139000</v>
       </c>
       <c r="I24" s="3">
-        <v>122000</v>
+        <v>23400</v>
       </c>
       <c r="J24" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K24" s="3">
         <v>151100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26800</v>
+        <v>277800</v>
       </c>
       <c r="E26" s="3">
-        <v>98600</v>
+        <v>140400</v>
       </c>
       <c r="F26" s="3">
-        <v>151100</v>
+        <v>94200</v>
       </c>
       <c r="G26" s="3">
-        <v>318700</v>
+        <v>144400</v>
       </c>
       <c r="H26" s="3">
-        <v>345000</v>
+        <v>304600</v>
       </c>
       <c r="I26" s="3">
-        <v>546300</v>
+        <v>329800</v>
       </c>
       <c r="J26" s="3">
+        <v>522200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-16000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78900</v>
+        <v>288000</v>
       </c>
       <c r="E27" s="3">
-        <v>164300</v>
+        <v>190200</v>
       </c>
       <c r="F27" s="3">
-        <v>178300</v>
+        <v>157100</v>
       </c>
       <c r="G27" s="3">
-        <v>313900</v>
+        <v>170400</v>
       </c>
       <c r="H27" s="3">
-        <v>337800</v>
+        <v>300000</v>
       </c>
       <c r="I27" s="3">
-        <v>516700</v>
+        <v>322900</v>
       </c>
       <c r="J27" s="3">
+        <v>493900</v>
+      </c>
+      <c r="K27" s="3">
         <v>140500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1318,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-114800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>37200</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>32400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12400</v>
+        <v>-2400</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-38400</v>
+        <v>2400</v>
       </c>
       <c r="G32" s="3">
-        <v>-10600</v>
+        <v>-36700</v>
       </c>
       <c r="H32" s="3">
-        <v>-268000</v>
+        <v>-10100</v>
       </c>
       <c r="I32" s="3">
-        <v>-284200</v>
+        <v>-256200</v>
       </c>
       <c r="J32" s="3">
+        <v>-271600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-61700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78900</v>
+        <v>196300</v>
       </c>
       <c r="E33" s="3">
-        <v>164300</v>
+        <v>75400</v>
       </c>
       <c r="F33" s="3">
-        <v>178300</v>
+        <v>157100</v>
       </c>
       <c r="G33" s="3">
-        <v>313900</v>
+        <v>170400</v>
       </c>
       <c r="H33" s="3">
-        <v>371700</v>
+        <v>300000</v>
       </c>
       <c r="I33" s="3">
-        <v>553900</v>
+        <v>355300</v>
       </c>
       <c r="J33" s="3">
+        <v>529500</v>
+      </c>
+      <c r="K33" s="3">
         <v>140500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78900</v>
+        <v>196300</v>
       </c>
       <c r="E35" s="3">
-        <v>164300</v>
+        <v>75400</v>
       </c>
       <c r="F35" s="3">
-        <v>178300</v>
+        <v>157100</v>
       </c>
       <c r="G35" s="3">
-        <v>313900</v>
+        <v>170400</v>
       </c>
       <c r="H35" s="3">
-        <v>371700</v>
+        <v>300000</v>
       </c>
       <c r="I35" s="3">
-        <v>553900</v>
+        <v>355300</v>
       </c>
       <c r="J35" s="3">
+        <v>529500</v>
+      </c>
+      <c r="K35" s="3">
         <v>140500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1523300</v>
+        <v>1217000</v>
       </c>
       <c r="E41" s="3">
-        <v>1861200</v>
+        <v>1456000</v>
       </c>
       <c r="F41" s="3">
-        <v>1552400</v>
+        <v>1779000</v>
       </c>
       <c r="G41" s="3">
-        <v>1772300</v>
+        <v>1483800</v>
       </c>
       <c r="H41" s="3">
-        <v>3390700</v>
+        <v>1694100</v>
       </c>
       <c r="I41" s="3">
-        <v>1366800</v>
+        <v>3241000</v>
       </c>
       <c r="J41" s="3">
+        <v>1306400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6900</v>
+        <v>5700</v>
       </c>
       <c r="E42" s="3">
         <v>6600</v>
       </c>
       <c r="F42" s="3">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="G42" s="3">
-        <v>4300</v>
+        <v>7600</v>
       </c>
       <c r="H42" s="3">
-        <v>19400</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>1375600</v>
+        <v>18500</v>
       </c>
       <c r="J42" s="3">
+        <v>1314900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1212500</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>844800</v>
+        <v>813200</v>
       </c>
       <c r="E43" s="3">
-        <v>857500</v>
+        <v>807500</v>
       </c>
       <c r="F43" s="3">
-        <v>855200</v>
+        <v>819600</v>
       </c>
       <c r="G43" s="3">
-        <v>803900</v>
+        <v>817500</v>
       </c>
       <c r="H43" s="3">
-        <v>1651100</v>
+        <v>768500</v>
       </c>
       <c r="I43" s="3">
-        <v>1077300</v>
+        <v>1578200</v>
       </c>
       <c r="J43" s="3">
+        <v>1029800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1203500</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>107200</v>
+        <v>92000</v>
       </c>
       <c r="E44" s="3">
-        <v>112600</v>
+        <v>102400</v>
       </c>
       <c r="F44" s="3">
-        <v>114100</v>
+        <v>107600</v>
       </c>
       <c r="G44" s="3">
-        <v>103200</v>
+        <v>109100</v>
       </c>
       <c r="H44" s="3">
-        <v>227700</v>
+        <v>98600</v>
       </c>
       <c r="I44" s="3">
-        <v>261500</v>
+        <v>217700</v>
       </c>
       <c r="J44" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K44" s="3">
         <v>146700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>309400</v>
+        <v>186300</v>
       </c>
       <c r="E45" s="3">
-        <v>365300</v>
+        <v>295800</v>
       </c>
       <c r="F45" s="3">
-        <v>299600</v>
+        <v>349200</v>
       </c>
       <c r="G45" s="3">
-        <v>243600</v>
+        <v>286300</v>
       </c>
       <c r="H45" s="3">
-        <v>541700</v>
+        <v>232800</v>
       </c>
       <c r="I45" s="3">
-        <v>532300</v>
+        <v>517800</v>
       </c>
       <c r="J45" s="3">
+        <v>508800</v>
+      </c>
+      <c r="K45" s="3">
         <v>136600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2791600</v>
+        <v>2314200</v>
       </c>
       <c r="E46" s="3">
-        <v>3203100</v>
+        <v>2668300</v>
       </c>
       <c r="F46" s="3">
-        <v>2829200</v>
+        <v>3061700</v>
       </c>
       <c r="G46" s="3">
-        <v>2927400</v>
+        <v>2704300</v>
       </c>
       <c r="H46" s="3">
-        <v>2927600</v>
+        <v>2798100</v>
       </c>
       <c r="I46" s="3">
-        <v>2795200</v>
+        <v>2798400</v>
       </c>
       <c r="J46" s="3">
+        <v>2671800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2704000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>97000</v>
+        <v>183900</v>
       </c>
       <c r="E47" s="3">
-        <v>100600</v>
+        <v>92700</v>
       </c>
       <c r="F47" s="3">
-        <v>103600</v>
+        <v>96200</v>
       </c>
       <c r="G47" s="3">
-        <v>122800</v>
+        <v>99100</v>
       </c>
       <c r="H47" s="3">
-        <v>130300</v>
+        <v>117400</v>
       </c>
       <c r="I47" s="3">
-        <v>260400</v>
+        <v>124500</v>
       </c>
       <c r="J47" s="3">
+        <v>248900</v>
+      </c>
+      <c r="K47" s="3">
         <v>169600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3217300</v>
+        <v>3075500</v>
       </c>
       <c r="E48" s="3">
-        <v>3348300</v>
+        <v>3075300</v>
       </c>
       <c r="F48" s="3">
-        <v>3463400</v>
+        <v>3200500</v>
       </c>
       <c r="G48" s="3">
-        <v>3642700</v>
+        <v>3310500</v>
       </c>
       <c r="H48" s="3">
-        <v>7697600</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>3481900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7357800</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5080200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1731300</v>
+        <v>1489600</v>
       </c>
       <c r="E49" s="3">
-        <v>1747500</v>
+        <v>1654800</v>
       </c>
       <c r="F49" s="3">
-        <v>1857900</v>
+        <v>1670300</v>
       </c>
       <c r="G49" s="3">
-        <v>1936200</v>
+        <v>1775900</v>
       </c>
       <c r="H49" s="3">
-        <v>2897900</v>
+        <v>1850700</v>
       </c>
       <c r="I49" s="3">
-        <v>3568600</v>
+        <v>2770000</v>
       </c>
       <c r="J49" s="3">
+        <v>3411100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1767200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>499600</v>
+        <v>454100</v>
       </c>
       <c r="E52" s="3">
-        <v>488200</v>
+        <v>477500</v>
       </c>
       <c r="F52" s="3">
-        <v>502600</v>
+        <v>466600</v>
       </c>
       <c r="G52" s="3">
-        <v>531700</v>
+        <v>480400</v>
       </c>
       <c r="H52" s="3">
-        <v>553900</v>
+        <v>508300</v>
       </c>
       <c r="I52" s="3">
-        <v>722800</v>
+        <v>529500</v>
       </c>
       <c r="J52" s="3">
+        <v>690900</v>
+      </c>
+      <c r="K52" s="3">
         <v>950000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8336600</v>
+        <v>7517200</v>
       </c>
       <c r="E54" s="3">
-        <v>8887600</v>
+        <v>7968600</v>
       </c>
       <c r="F54" s="3">
-        <v>8756900</v>
+        <v>8495300</v>
       </c>
       <c r="G54" s="3">
-        <v>9160800</v>
+        <v>8370300</v>
       </c>
       <c r="H54" s="3">
-        <v>9206500</v>
+        <v>8756300</v>
       </c>
       <c r="I54" s="3">
-        <v>9820100</v>
+        <v>8800100</v>
       </c>
       <c r="J54" s="3">
+        <v>9386600</v>
+      </c>
+      <c r="K54" s="3">
         <v>10671000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1364400</v>
+        <v>1160100</v>
       </c>
       <c r="E57" s="3">
-        <v>1601200</v>
+        <v>1304200</v>
       </c>
       <c r="F57" s="3">
-        <v>1411500</v>
+        <v>1530500</v>
       </c>
       <c r="G57" s="3">
-        <v>1144600</v>
+        <v>1349200</v>
       </c>
       <c r="H57" s="3">
-        <v>1084200</v>
+        <v>1094100</v>
       </c>
       <c r="I57" s="3">
-        <v>920900</v>
+        <v>1036400</v>
       </c>
       <c r="J57" s="3">
+        <v>880200</v>
+      </c>
+      <c r="K57" s="3">
         <v>879900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>897400</v>
+        <v>614900</v>
       </c>
       <c r="E58" s="3">
-        <v>216100</v>
+        <v>857800</v>
       </c>
       <c r="F58" s="3">
-        <v>508800</v>
+        <v>206600</v>
       </c>
       <c r="G58" s="3">
-        <v>546300</v>
+        <v>486400</v>
       </c>
       <c r="H58" s="3">
-        <v>469400</v>
+        <v>522200</v>
       </c>
       <c r="I58" s="3">
-        <v>1661600</v>
+        <v>448700</v>
       </c>
       <c r="J58" s="3">
+        <v>1588300</v>
+      </c>
+      <c r="K58" s="3">
         <v>895500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>932100</v>
+        <v>845800</v>
       </c>
       <c r="E59" s="3">
-        <v>1047000</v>
+        <v>891000</v>
       </c>
       <c r="F59" s="3">
-        <v>1001100</v>
+        <v>1000800</v>
       </c>
       <c r="G59" s="3">
-        <v>1167200</v>
+        <v>956900</v>
       </c>
       <c r="H59" s="3">
-        <v>1272400</v>
+        <v>1115700</v>
       </c>
       <c r="I59" s="3">
-        <v>1657400</v>
+        <v>1216200</v>
       </c>
       <c r="J59" s="3">
+        <v>1584200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1110200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3193900</v>
+        <v>2620700</v>
       </c>
       <c r="E60" s="3">
-        <v>2864300</v>
+        <v>3052900</v>
       </c>
       <c r="F60" s="3">
-        <v>2921500</v>
+        <v>2737900</v>
       </c>
       <c r="G60" s="3">
-        <v>2858100</v>
+        <v>2792500</v>
       </c>
       <c r="H60" s="3">
-        <v>2826100</v>
+        <v>2731900</v>
       </c>
       <c r="I60" s="3">
-        <v>3600200</v>
+        <v>2701300</v>
       </c>
       <c r="J60" s="3">
+        <v>3441300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2885600</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1498000</v>
+        <v>1436800</v>
       </c>
       <c r="E61" s="3">
-        <v>2278400</v>
+        <v>1431900</v>
       </c>
       <c r="F61" s="3">
-        <v>2060700</v>
+        <v>2177800</v>
       </c>
       <c r="G61" s="3">
-        <v>2550800</v>
+        <v>1969800</v>
       </c>
       <c r="H61" s="3">
-        <v>3000800</v>
+        <v>2438200</v>
       </c>
       <c r="I61" s="3">
-        <v>3093200</v>
+        <v>2868400</v>
       </c>
       <c r="J61" s="3">
+        <v>2956700</v>
+      </c>
+      <c r="K61" s="3">
         <v>4858500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>605200</v>
+        <v>527400</v>
       </c>
       <c r="E62" s="3">
-        <v>632300</v>
+        <v>578500</v>
       </c>
       <c r="F62" s="3">
-        <v>711900</v>
+        <v>604400</v>
       </c>
       <c r="G62" s="3">
-        <v>819200</v>
+        <v>680500</v>
       </c>
       <c r="H62" s="3">
-        <v>842000</v>
+        <v>783000</v>
       </c>
       <c r="I62" s="3">
-        <v>928400</v>
+        <v>804800</v>
       </c>
       <c r="J62" s="3">
+        <v>887400</v>
+      </c>
+      <c r="K62" s="3">
         <v>864200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5584800</v>
+        <v>4899400</v>
       </c>
       <c r="E66" s="3">
-        <v>6122100</v>
+        <v>5338200</v>
       </c>
       <c r="F66" s="3">
-        <v>6107600</v>
+        <v>5851900</v>
       </c>
       <c r="G66" s="3">
-        <v>6669900</v>
+        <v>5837900</v>
       </c>
       <c r="H66" s="3">
-        <v>6952500</v>
+        <v>6375500</v>
       </c>
       <c r="I66" s="3">
-        <v>7943400</v>
+        <v>6645500</v>
       </c>
       <c r="J66" s="3">
+        <v>7592700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9047000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4632600</v>
+        <v>4468200</v>
       </c>
       <c r="E72" s="3">
-        <v>4645500</v>
+        <v>4251800</v>
       </c>
       <c r="F72" s="3">
-        <v>4538500</v>
+        <v>4264800</v>
       </c>
       <c r="G72" s="3">
-        <v>4406100</v>
+        <v>4154100</v>
       </c>
       <c r="H72" s="3">
-        <v>4114900</v>
+        <v>4002300</v>
       </c>
       <c r="I72" s="3">
-        <v>7614300</v>
+        <v>3756100</v>
       </c>
       <c r="J72" s="3">
+        <v>7092700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3466400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2751900</v>
+        <v>2617800</v>
       </c>
       <c r="E76" s="3">
-        <v>2765500</v>
+        <v>2630400</v>
       </c>
       <c r="F76" s="3">
-        <v>2649300</v>
+        <v>2643400</v>
       </c>
       <c r="G76" s="3">
-        <v>2490800</v>
+        <v>2532300</v>
       </c>
       <c r="H76" s="3">
-        <v>2254100</v>
+        <v>2380900</v>
       </c>
       <c r="I76" s="3">
-        <v>1876700</v>
+        <v>2154600</v>
       </c>
       <c r="J76" s="3">
+        <v>1793800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1624000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78900</v>
+        <v>196300</v>
       </c>
       <c r="E81" s="3">
-        <v>164300</v>
+        <v>75400</v>
       </c>
       <c r="F81" s="3">
-        <v>178300</v>
+        <v>157100</v>
       </c>
       <c r="G81" s="3">
-        <v>313900</v>
+        <v>170400</v>
       </c>
       <c r="H81" s="3">
-        <v>371700</v>
+        <v>300000</v>
       </c>
       <c r="I81" s="3">
-        <v>553900</v>
+        <v>355300</v>
       </c>
       <c r="J81" s="3">
+        <v>529500</v>
+      </c>
+      <c r="K81" s="3">
         <v>140500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1099900</v>
+        <v>847900</v>
       </c>
       <c r="E83" s="3">
-        <v>1034600</v>
+        <v>942400</v>
       </c>
       <c r="F83" s="3">
-        <v>973600</v>
+        <v>988900</v>
       </c>
       <c r="G83" s="3">
-        <v>934800</v>
+        <v>930600</v>
       </c>
       <c r="H83" s="3">
-        <v>988900</v>
+        <v>893600</v>
       </c>
       <c r="I83" s="3">
-        <v>960600</v>
+        <v>945300</v>
       </c>
       <c r="J83" s="3">
+        <v>918200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1537900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>939800</v>
+        <v>1108500</v>
       </c>
       <c r="E89" s="3">
-        <v>1203300</v>
+        <v>898300</v>
       </c>
       <c r="F89" s="3">
-        <v>1107100</v>
+        <v>1150200</v>
       </c>
       <c r="G89" s="3">
-        <v>1173500</v>
+        <v>1058300</v>
       </c>
       <c r="H89" s="3">
-        <v>1281700</v>
+        <v>1121700</v>
       </c>
       <c r="I89" s="3">
-        <v>1369700</v>
+        <v>1225100</v>
       </c>
       <c r="J89" s="3">
+        <v>1309300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1418200</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1079800</v>
+        <v>-807700</v>
       </c>
       <c r="E91" s="3">
-        <v>-766500</v>
+        <v>-1014500</v>
       </c>
       <c r="F91" s="3">
-        <v>-772800</v>
+        <v>-732700</v>
       </c>
       <c r="G91" s="3">
-        <v>-708900</v>
+        <v>-738700</v>
       </c>
       <c r="H91" s="3">
-        <v>-709800</v>
+        <v>-677600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1246800</v>
+        <v>-678500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1191800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-841000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1071300</v>
+        <v>-809300</v>
       </c>
       <c r="E94" s="3">
-        <v>-759500</v>
+        <v>-1024000</v>
       </c>
       <c r="F94" s="3">
-        <v>-757600</v>
+        <v>-725900</v>
       </c>
       <c r="G94" s="3">
-        <v>-676100</v>
+        <v>-724100</v>
       </c>
       <c r="H94" s="3">
-        <v>188200</v>
+        <v>-646300</v>
       </c>
       <c r="I94" s="3">
-        <v>176500</v>
+        <v>179900</v>
       </c>
       <c r="J94" s="3">
+        <v>168700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1210200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3093,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3120,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200800</v>
+        <v>-538600</v>
       </c>
       <c r="E100" s="3">
-        <v>-134300</v>
+        <v>-192000</v>
       </c>
       <c r="F100" s="3">
-        <v>-575300</v>
+        <v>-128400</v>
       </c>
       <c r="G100" s="3">
-        <v>-419600</v>
+        <v>-549900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1134100</v>
+        <v>-401100</v>
       </c>
       <c r="I100" s="3">
-        <v>-977800</v>
+        <v>-1084100</v>
       </c>
       <c r="J100" s="3">
+        <v>-934600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-581200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5500</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
-        <v>5800</v>
-      </c>
       <c r="G101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3900</v>
-      </c>
       <c r="I101" s="3">
-        <v>-7200</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-337900</v>
+        <v>-239000</v>
       </c>
       <c r="E102" s="3">
-        <v>308800</v>
+        <v>-323000</v>
       </c>
       <c r="F102" s="3">
-        <v>-220000</v>
+        <v>295200</v>
       </c>
       <c r="G102" s="3">
-        <v>77000</v>
+        <v>-210300</v>
       </c>
       <c r="H102" s="3">
-        <v>331800</v>
+        <v>73600</v>
       </c>
       <c r="I102" s="3">
-        <v>561300</v>
+        <v>317200</v>
       </c>
       <c r="J102" s="3">
+        <v>536500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-376700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC852014-3761-402B-A544-3A35BABC3C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HLTOY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>HLTOY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4262100</v>
+        <v>4171000</v>
       </c>
       <c r="E8" s="3">
-        <v>4260100</v>
+        <v>4169000</v>
       </c>
       <c r="F8" s="3">
-        <v>4384800</v>
+        <v>4291100</v>
       </c>
       <c r="G8" s="3">
-        <v>4379000</v>
+        <v>4285400</v>
       </c>
       <c r="H8" s="3">
-        <v>4396400</v>
+        <v>4302400</v>
       </c>
       <c r="I8" s="3">
-        <v>4548700</v>
+        <v>4451400</v>
       </c>
       <c r="J8" s="3">
-        <v>4858600</v>
+        <v>4754700</v>
       </c>
       <c r="K8" s="3">
         <v>5914000</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>179500</v>
       </c>
       <c r="F9" s="3">
-        <v>200700</v>
+        <v>196400</v>
       </c>
       <c r="G9" s="3">
-        <v>185000</v>
+        <v>181100</v>
       </c>
       <c r="H9" s="3">
-        <v>145500</v>
+        <v>142400</v>
       </c>
       <c r="I9" s="3">
-        <v>138900</v>
+        <v>135900</v>
       </c>
       <c r="J9" s="3">
-        <v>1032000</v>
+        <v>1009900</v>
       </c>
       <c r="K9" s="3">
         <v>1272100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>4005600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3989500</v>
       </c>
       <c r="F10" s="3">
-        <v>4184100</v>
+        <v>4094700</v>
       </c>
       <c r="G10" s="3">
-        <v>4194000</v>
+        <v>4104300</v>
       </c>
       <c r="H10" s="3">
-        <v>4250900</v>
+        <v>4160000</v>
       </c>
       <c r="I10" s="3">
-        <v>4409800</v>
+        <v>4315500</v>
       </c>
       <c r="J10" s="3">
-        <v>3826500</v>
+        <v>3744700</v>
       </c>
       <c r="K10" s="3">
         <v>4641900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,21 +873,21 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E14" s="3">
-        <v>44700</v>
+        <v>43700</v>
       </c>
       <c r="F14" s="3">
-        <v>-20500</v>
+        <v>-20100</v>
       </c>
       <c r="G14" s="3">
-        <v>22300</v>
+        <v>21900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -938,37 +903,37 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>915000</v>
+        <v>895400</v>
       </c>
       <c r="E15" s="3">
-        <v>985300</v>
+        <v>964300</v>
       </c>
       <c r="F15" s="3">
-        <v>988900</v>
+        <v>967800</v>
       </c>
       <c r="G15" s="3">
-        <v>930600</v>
+        <v>910700</v>
       </c>
       <c r="H15" s="3">
-        <v>893600</v>
+        <v>874400</v>
       </c>
       <c r="I15" s="3">
-        <v>945300</v>
+        <v>925100</v>
       </c>
       <c r="J15" s="3">
-        <v>918200</v>
+        <v>898600</v>
       </c>
       <c r="K15" s="3">
         <v>1537900</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3704000</v>
+        <v>3624800</v>
       </c>
       <c r="E17" s="3">
-        <v>3793700</v>
+        <v>3712600</v>
       </c>
       <c r="F17" s="3">
-        <v>3931700</v>
+        <v>3847600</v>
       </c>
       <c r="G17" s="3">
-        <v>3962500</v>
+        <v>3877800</v>
       </c>
       <c r="H17" s="3">
-        <v>3735400</v>
+        <v>3655600</v>
       </c>
       <c r="I17" s="3">
-        <v>4172200</v>
+        <v>4083000</v>
       </c>
       <c r="J17" s="3">
-        <v>4214000</v>
+        <v>4123900</v>
       </c>
       <c r="K17" s="3">
         <v>5500100</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>558100</v>
+        <v>546100</v>
       </c>
       <c r="E18" s="3">
-        <v>466400</v>
+        <v>456400</v>
       </c>
       <c r="F18" s="3">
-        <v>453200</v>
+        <v>443500</v>
       </c>
       <c r="G18" s="3">
-        <v>416500</v>
+        <v>407600</v>
       </c>
       <c r="H18" s="3">
-        <v>661000</v>
+        <v>646800</v>
       </c>
       <c r="I18" s="3">
-        <v>376400</v>
+        <v>368400</v>
       </c>
       <c r="J18" s="3">
-        <v>644600</v>
+        <v>630800</v>
       </c>
       <c r="K18" s="3">
         <v>413900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>36700</v>
+        <v>35900</v>
       </c>
       <c r="H20" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="I20" s="3">
-        <v>256200</v>
+        <v>250700</v>
       </c>
       <c r="J20" s="3">
-        <v>271600</v>
+        <v>265800</v>
       </c>
       <c r="K20" s="3">
         <v>61700</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1410400</v>
+        <v>1379500</v>
       </c>
       <c r="E21" s="3">
-        <v>1406700</v>
+        <v>1375800</v>
       </c>
       <c r="F21" s="3">
-        <v>1442100</v>
+        <v>1410500</v>
       </c>
       <c r="G21" s="3">
-        <v>1386000</v>
+        <v>1355600</v>
       </c>
       <c r="H21" s="3">
-        <v>1566800</v>
+        <v>1532500</v>
       </c>
       <c r="I21" s="3">
-        <v>1580100</v>
+        <v>1545500</v>
       </c>
       <c r="J21" s="3">
-        <v>1836700</v>
+        <v>1796600</v>
       </c>
       <c r="K21" s="3">
         <v>2014600</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>96600</v>
+        <v>94500</v>
       </c>
       <c r="E22" s="3">
-        <v>156100</v>
+        <v>152700</v>
       </c>
       <c r="F22" s="3">
-        <v>167600</v>
+        <v>164000</v>
       </c>
       <c r="G22" s="3">
-        <v>176600</v>
+        <v>172800</v>
       </c>
       <c r="H22" s="3">
-        <v>227400</v>
+        <v>222600</v>
       </c>
       <c r="I22" s="3">
-        <v>279400</v>
+        <v>273400</v>
       </c>
       <c r="J22" s="3">
-        <v>277500</v>
+        <v>271500</v>
       </c>
       <c r="K22" s="3">
         <v>340500</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>463800</v>
+        <v>453900</v>
       </c>
       <c r="E23" s="3">
-        <v>306000</v>
+        <v>299400</v>
       </c>
       <c r="F23" s="3">
-        <v>283200</v>
+        <v>277100</v>
       </c>
       <c r="G23" s="3">
-        <v>276600</v>
+        <v>270700</v>
       </c>
       <c r="H23" s="3">
-        <v>443600</v>
+        <v>434100</v>
       </c>
       <c r="I23" s="3">
-        <v>353200</v>
+        <v>345700</v>
       </c>
       <c r="J23" s="3">
-        <v>638700</v>
+        <v>625100</v>
       </c>
       <c r="K23" s="3">
         <v>135100</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>186000</v>
+        <v>182000</v>
       </c>
       <c r="E24" s="3">
-        <v>165600</v>
+        <v>162100</v>
       </c>
       <c r="F24" s="3">
-        <v>188900</v>
+        <v>184900</v>
       </c>
       <c r="G24" s="3">
-        <v>132200</v>
+        <v>129300</v>
       </c>
       <c r="H24" s="3">
-        <v>139000</v>
+        <v>136000</v>
       </c>
       <c r="I24" s="3">
-        <v>23400</v>
+        <v>22900</v>
       </c>
       <c r="J24" s="3">
-        <v>116600</v>
+        <v>114100</v>
       </c>
       <c r="K24" s="3">
         <v>151100</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>277800</v>
+        <v>271900</v>
       </c>
       <c r="E26" s="3">
-        <v>140400</v>
+        <v>137400</v>
       </c>
       <c r="F26" s="3">
-        <v>94200</v>
+        <v>92200</v>
       </c>
       <c r="G26" s="3">
-        <v>144400</v>
+        <v>141300</v>
       </c>
       <c r="H26" s="3">
-        <v>304600</v>
+        <v>298100</v>
       </c>
       <c r="I26" s="3">
-        <v>329800</v>
+        <v>322700</v>
       </c>
       <c r="J26" s="3">
-        <v>522200</v>
+        <v>511000</v>
       </c>
       <c r="K26" s="3">
         <v>-16000</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>288000</v>
+        <v>281900</v>
       </c>
       <c r="E27" s="3">
-        <v>190200</v>
+        <v>186100</v>
       </c>
       <c r="F27" s="3">
-        <v>157100</v>
+        <v>153700</v>
       </c>
       <c r="G27" s="3">
-        <v>170400</v>
+        <v>166800</v>
       </c>
       <c r="H27" s="3">
-        <v>300000</v>
+        <v>293600</v>
       </c>
       <c r="I27" s="3">
-        <v>322900</v>
+        <v>316000</v>
       </c>
       <c r="J27" s="3">
-        <v>493900</v>
+        <v>483300</v>
       </c>
       <c r="K27" s="3">
         <v>140500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,15 +1288,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-91700</v>
+        <v>-89700</v>
       </c>
       <c r="E29" s="3">
-        <v>-114800</v>
+        <v>-112300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1343,17 +1308,17 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>32400</v>
+        <v>31700</v>
       </c>
       <c r="J29" s="3">
-        <v>35600</v>
+        <v>34800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>-36700</v>
+        <v>-35900</v>
       </c>
       <c r="H32" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="I32" s="3">
-        <v>-256200</v>
+        <v>-250700</v>
       </c>
       <c r="J32" s="3">
-        <v>-271600</v>
+        <v>-265800</v>
       </c>
       <c r="K32" s="3">
         <v>-61700</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>196300</v>
+        <v>192200</v>
       </c>
       <c r="E33" s="3">
-        <v>75400</v>
+        <v>73800</v>
       </c>
       <c r="F33" s="3">
-        <v>157100</v>
+        <v>153700</v>
       </c>
       <c r="G33" s="3">
-        <v>170400</v>
+        <v>166800</v>
       </c>
       <c r="H33" s="3">
-        <v>300000</v>
+        <v>293600</v>
       </c>
       <c r="I33" s="3">
-        <v>355300</v>
+        <v>347700</v>
       </c>
       <c r="J33" s="3">
-        <v>529500</v>
+        <v>518100</v>
       </c>
       <c r="K33" s="3">
         <v>140500</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>196300</v>
+        <v>192200</v>
       </c>
       <c r="E35" s="3">
-        <v>75400</v>
+        <v>73800</v>
       </c>
       <c r="F35" s="3">
-        <v>157100</v>
+        <v>153700</v>
       </c>
       <c r="G35" s="3">
-        <v>170400</v>
+        <v>166800</v>
       </c>
       <c r="H35" s="3">
-        <v>300000</v>
+        <v>293600</v>
       </c>
       <c r="I35" s="3">
-        <v>355300</v>
+        <v>347700</v>
       </c>
       <c r="J35" s="3">
-        <v>529500</v>
+        <v>518100</v>
       </c>
       <c r="K35" s="3">
         <v>140500</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,237 +1561,237 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1217000</v>
+        <v>1191000</v>
       </c>
       <c r="E41" s="3">
-        <v>1456000</v>
+        <v>1424900</v>
       </c>
       <c r="F41" s="3">
-        <v>1779000</v>
+        <v>1741000</v>
       </c>
       <c r="G41" s="3">
-        <v>1483800</v>
+        <v>1452100</v>
       </c>
       <c r="H41" s="3">
-        <v>1694100</v>
+        <v>1657900</v>
       </c>
       <c r="I41" s="3">
-        <v>3241000</v>
+        <v>3171700</v>
       </c>
       <c r="J41" s="3">
-        <v>1306400</v>
+        <v>1278500</v>
       </c>
       <c r="K41" s="3">
         <v>4600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E42" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F42" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G42" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H42" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I42" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="J42" s="3">
-        <v>1314900</v>
+        <v>1286700</v>
       </c>
       <c r="K42" s="3">
         <v>1212500</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>813200</v>
+        <v>795800</v>
       </c>
       <c r="E43" s="3">
-        <v>807500</v>
+        <v>790200</v>
       </c>
       <c r="F43" s="3">
-        <v>819600</v>
+        <v>802100</v>
       </c>
       <c r="G43" s="3">
-        <v>817500</v>
+        <v>800000</v>
       </c>
       <c r="H43" s="3">
-        <v>768500</v>
+        <v>752000</v>
       </c>
       <c r="I43" s="3">
-        <v>1578200</v>
+        <v>1544400</v>
       </c>
       <c r="J43" s="3">
-        <v>1029800</v>
+        <v>1007700</v>
       </c>
       <c r="K43" s="3">
         <v>1203500</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>92000</v>
+        <v>90000</v>
       </c>
       <c r="E44" s="3">
-        <v>102400</v>
+        <v>100200</v>
       </c>
       <c r="F44" s="3">
-        <v>107600</v>
+        <v>105300</v>
       </c>
       <c r="G44" s="3">
-        <v>109100</v>
+        <v>106700</v>
       </c>
       <c r="H44" s="3">
-        <v>98600</v>
+        <v>96500</v>
       </c>
       <c r="I44" s="3">
-        <v>217700</v>
+        <v>213000</v>
       </c>
       <c r="J44" s="3">
-        <v>250000</v>
+        <v>244600</v>
       </c>
       <c r="K44" s="3">
         <v>146700</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>186300</v>
+        <v>182300</v>
       </c>
       <c r="E45" s="3">
-        <v>295800</v>
+        <v>289400</v>
       </c>
       <c r="F45" s="3">
-        <v>349200</v>
+        <v>341700</v>
       </c>
       <c r="G45" s="3">
-        <v>286300</v>
+        <v>280200</v>
       </c>
       <c r="H45" s="3">
-        <v>232800</v>
+        <v>227800</v>
       </c>
       <c r="I45" s="3">
-        <v>517800</v>
+        <v>506700</v>
       </c>
       <c r="J45" s="3">
-        <v>508800</v>
+        <v>497900</v>
       </c>
       <c r="K45" s="3">
         <v>136600</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2314200</v>
+        <v>2264700</v>
       </c>
       <c r="E46" s="3">
-        <v>2668300</v>
+        <v>2611300</v>
       </c>
       <c r="F46" s="3">
-        <v>3061700</v>
+        <v>2996200</v>
       </c>
       <c r="G46" s="3">
-        <v>2704300</v>
+        <v>2646500</v>
       </c>
       <c r="H46" s="3">
-        <v>2798100</v>
+        <v>2738300</v>
       </c>
       <c r="I46" s="3">
-        <v>2798400</v>
+        <v>2738500</v>
       </c>
       <c r="J46" s="3">
-        <v>2671800</v>
+        <v>2614700</v>
       </c>
       <c r="K46" s="3">
         <v>2704000</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>183900</v>
+        <v>180000</v>
       </c>
       <c r="E47" s="3">
-        <v>92700</v>
+        <v>90700</v>
       </c>
       <c r="F47" s="3">
-        <v>96200</v>
+        <v>94100</v>
       </c>
       <c r="G47" s="3">
-        <v>99100</v>
+        <v>97000</v>
       </c>
       <c r="H47" s="3">
-        <v>117400</v>
+        <v>114900</v>
       </c>
       <c r="I47" s="3">
-        <v>124500</v>
+        <v>121900</v>
       </c>
       <c r="J47" s="3">
-        <v>248900</v>
+        <v>243500</v>
       </c>
       <c r="K47" s="3">
         <v>169600</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3075500</v>
+        <v>3009700</v>
       </c>
       <c r="E48" s="3">
-        <v>3075300</v>
+        <v>3009500</v>
       </c>
       <c r="F48" s="3">
-        <v>3200500</v>
+        <v>3132000</v>
       </c>
       <c r="G48" s="3">
-        <v>3310500</v>
+        <v>3239800</v>
       </c>
       <c r="H48" s="3">
-        <v>3481900</v>
+        <v>3407400</v>
       </c>
       <c r="I48" s="3">
-        <v>7357800</v>
+        <v>7200500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1836,37 +1801,37 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1489600</v>
+        <v>1457700</v>
       </c>
       <c r="E49" s="3">
-        <v>1654800</v>
+        <v>1619400</v>
       </c>
       <c r="F49" s="3">
-        <v>1670300</v>
+        <v>1634600</v>
       </c>
       <c r="G49" s="3">
-        <v>1775900</v>
+        <v>1737900</v>
       </c>
       <c r="H49" s="3">
-        <v>1850700</v>
+        <v>1811200</v>
       </c>
       <c r="I49" s="3">
-        <v>2770000</v>
+        <v>2710700</v>
       </c>
       <c r="J49" s="3">
-        <v>3411100</v>
+        <v>3338100</v>
       </c>
       <c r="K49" s="3">
         <v>1767200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>454100</v>
+        <v>444400</v>
       </c>
       <c r="E52" s="3">
-        <v>477500</v>
+        <v>467300</v>
       </c>
       <c r="F52" s="3">
-        <v>466600</v>
+        <v>456700</v>
       </c>
       <c r="G52" s="3">
-        <v>480400</v>
+        <v>470200</v>
       </c>
       <c r="H52" s="3">
-        <v>508300</v>
+        <v>497400</v>
       </c>
       <c r="I52" s="3">
-        <v>529500</v>
+        <v>518100</v>
       </c>
       <c r="J52" s="3">
-        <v>690900</v>
+        <v>676100</v>
       </c>
       <c r="K52" s="3">
         <v>950000</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7517200</v>
+        <v>7356500</v>
       </c>
       <c r="E54" s="3">
-        <v>7968600</v>
+        <v>7798200</v>
       </c>
       <c r="F54" s="3">
-        <v>8495300</v>
+        <v>8313600</v>
       </c>
       <c r="G54" s="3">
-        <v>8370300</v>
+        <v>8191300</v>
       </c>
       <c r="H54" s="3">
-        <v>8756300</v>
+        <v>8569100</v>
       </c>
       <c r="I54" s="3">
-        <v>8800100</v>
+        <v>8611900</v>
       </c>
       <c r="J54" s="3">
-        <v>9386600</v>
+        <v>9185900</v>
       </c>
       <c r="K54" s="3">
         <v>10671000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1160100</v>
+        <v>1135300</v>
       </c>
       <c r="E57" s="3">
-        <v>1304200</v>
+        <v>1276300</v>
       </c>
       <c r="F57" s="3">
-        <v>1530500</v>
+        <v>1497800</v>
       </c>
       <c r="G57" s="3">
-        <v>1349200</v>
+        <v>1320300</v>
       </c>
       <c r="H57" s="3">
-        <v>1094100</v>
+        <v>1070700</v>
       </c>
       <c r="I57" s="3">
-        <v>1036400</v>
+        <v>1014200</v>
       </c>
       <c r="J57" s="3">
-        <v>880200</v>
+        <v>861400</v>
       </c>
       <c r="K57" s="3">
         <v>879900</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>614900</v>
+        <v>601700</v>
       </c>
       <c r="E58" s="3">
-        <v>857800</v>
+        <v>839400</v>
       </c>
       <c r="F58" s="3">
-        <v>206600</v>
+        <v>202100</v>
       </c>
       <c r="G58" s="3">
-        <v>486400</v>
+        <v>476000</v>
       </c>
       <c r="H58" s="3">
-        <v>522200</v>
+        <v>511000</v>
       </c>
       <c r="I58" s="3">
-        <v>448700</v>
+        <v>439100</v>
       </c>
       <c r="J58" s="3">
-        <v>1588300</v>
+        <v>1554300</v>
       </c>
       <c r="K58" s="3">
         <v>895500</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>845800</v>
+        <v>827700</v>
       </c>
       <c r="E59" s="3">
-        <v>891000</v>
+        <v>871900</v>
       </c>
       <c r="F59" s="3">
-        <v>1000800</v>
+        <v>979400</v>
       </c>
       <c r="G59" s="3">
-        <v>956900</v>
+        <v>936500</v>
       </c>
       <c r="H59" s="3">
-        <v>1115700</v>
+        <v>1091900</v>
       </c>
       <c r="I59" s="3">
-        <v>1216200</v>
+        <v>1190200</v>
       </c>
       <c r="J59" s="3">
-        <v>1584200</v>
+        <v>1550400</v>
       </c>
       <c r="K59" s="3">
         <v>1110200</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2620700</v>
+        <v>2564700</v>
       </c>
       <c r="E60" s="3">
-        <v>3052900</v>
+        <v>2987700</v>
       </c>
       <c r="F60" s="3">
-        <v>2737900</v>
+        <v>2679300</v>
       </c>
       <c r="G60" s="3">
-        <v>2792500</v>
+        <v>2732800</v>
       </c>
       <c r="H60" s="3">
-        <v>2731900</v>
+        <v>2673500</v>
       </c>
       <c r="I60" s="3">
-        <v>2701300</v>
+        <v>2643500</v>
       </c>
       <c r="J60" s="3">
-        <v>3441300</v>
+        <v>3367700</v>
       </c>
       <c r="K60" s="3">
         <v>2885600</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1436800</v>
+        <v>1406100</v>
       </c>
       <c r="E61" s="3">
-        <v>1431900</v>
+        <v>1401300</v>
       </c>
       <c r="F61" s="3">
-        <v>2177800</v>
+        <v>2131200</v>
       </c>
       <c r="G61" s="3">
-        <v>1969800</v>
+        <v>1927600</v>
       </c>
       <c r="H61" s="3">
-        <v>2438200</v>
+        <v>2386100</v>
       </c>
       <c r="I61" s="3">
-        <v>2868400</v>
+        <v>2807000</v>
       </c>
       <c r="J61" s="3">
-        <v>2956700</v>
+        <v>2893400</v>
       </c>
       <c r="K61" s="3">
         <v>4858500</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>527400</v>
+        <v>516200</v>
       </c>
       <c r="E62" s="3">
-        <v>578500</v>
+        <v>566100</v>
       </c>
       <c r="F62" s="3">
-        <v>604400</v>
+        <v>591500</v>
       </c>
       <c r="G62" s="3">
-        <v>680500</v>
+        <v>665900</v>
       </c>
       <c r="H62" s="3">
-        <v>783000</v>
+        <v>766300</v>
       </c>
       <c r="I62" s="3">
-        <v>804800</v>
+        <v>787600</v>
       </c>
       <c r="J62" s="3">
-        <v>887400</v>
+        <v>868400</v>
       </c>
       <c r="K62" s="3">
         <v>864200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4899400</v>
+        <v>4794600</v>
       </c>
       <c r="E66" s="3">
-        <v>5338200</v>
+        <v>5224100</v>
       </c>
       <c r="F66" s="3">
-        <v>5851900</v>
+        <v>5726700</v>
       </c>
       <c r="G66" s="3">
-        <v>5837900</v>
+        <v>5713100</v>
       </c>
       <c r="H66" s="3">
-        <v>6375500</v>
+        <v>6239200</v>
       </c>
       <c r="I66" s="3">
-        <v>6645500</v>
+        <v>6503500</v>
       </c>
       <c r="J66" s="3">
-        <v>7592700</v>
+        <v>7430400</v>
       </c>
       <c r="K66" s="3">
         <v>9047000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4468200</v>
+        <v>4372700</v>
       </c>
       <c r="E72" s="3">
-        <v>4251800</v>
+        <v>4160900</v>
       </c>
       <c r="F72" s="3">
-        <v>4264800</v>
+        <v>4173600</v>
       </c>
       <c r="G72" s="3">
-        <v>4154100</v>
+        <v>4065200</v>
       </c>
       <c r="H72" s="3">
-        <v>4002300</v>
+        <v>3916700</v>
       </c>
       <c r="I72" s="3">
-        <v>3756100</v>
+        <v>3675800</v>
       </c>
       <c r="J72" s="3">
-        <v>7092700</v>
+        <v>6941000</v>
       </c>
       <c r="K72" s="3">
         <v>3466400</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2617800</v>
+        <v>2561900</v>
       </c>
       <c r="E76" s="3">
-        <v>2630400</v>
+        <v>2574200</v>
       </c>
       <c r="F76" s="3">
-        <v>2643400</v>
+        <v>2586900</v>
       </c>
       <c r="G76" s="3">
-        <v>2532300</v>
+        <v>2478200</v>
       </c>
       <c r="H76" s="3">
-        <v>2380900</v>
+        <v>2330000</v>
       </c>
       <c r="I76" s="3">
-        <v>2154600</v>
+        <v>2108500</v>
       </c>
       <c r="J76" s="3">
-        <v>1793800</v>
+        <v>1755500</v>
       </c>
       <c r="K76" s="3">
         <v>1624000</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>196300</v>
+        <v>192200</v>
       </c>
       <c r="E81" s="3">
-        <v>75400</v>
+        <v>73800</v>
       </c>
       <c r="F81" s="3">
-        <v>157100</v>
+        <v>153700</v>
       </c>
       <c r="G81" s="3">
-        <v>170400</v>
+        <v>166800</v>
       </c>
       <c r="H81" s="3">
-        <v>300000</v>
+        <v>293600</v>
       </c>
       <c r="I81" s="3">
-        <v>355300</v>
+        <v>347700</v>
       </c>
       <c r="J81" s="3">
-        <v>529500</v>
+        <v>518100</v>
       </c>
       <c r="K81" s="3">
         <v>140500</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>847900</v>
+        <v>829800</v>
       </c>
       <c r="E83" s="3">
-        <v>942400</v>
+        <v>922200</v>
       </c>
       <c r="F83" s="3">
-        <v>988900</v>
+        <v>967800</v>
       </c>
       <c r="G83" s="3">
-        <v>930600</v>
+        <v>910700</v>
       </c>
       <c r="H83" s="3">
-        <v>893600</v>
+        <v>874400</v>
       </c>
       <c r="I83" s="3">
-        <v>945300</v>
+        <v>925100</v>
       </c>
       <c r="J83" s="3">
-        <v>918200</v>
+        <v>898600</v>
       </c>
       <c r="K83" s="3">
         <v>1537900</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1108500</v>
+        <v>1084800</v>
       </c>
       <c r="E89" s="3">
-        <v>898300</v>
+        <v>879100</v>
       </c>
       <c r="F89" s="3">
-        <v>1150200</v>
+        <v>1125600</v>
       </c>
       <c r="G89" s="3">
-        <v>1058300</v>
+        <v>1035600</v>
       </c>
       <c r="H89" s="3">
-        <v>1121700</v>
+        <v>1097700</v>
       </c>
       <c r="I89" s="3">
-        <v>1225100</v>
+        <v>1198900</v>
       </c>
       <c r="J89" s="3">
-        <v>1309300</v>
+        <v>1281300</v>
       </c>
       <c r="K89" s="3">
         <v>1418200</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-807700</v>
+        <v>-790500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1014500</v>
+        <v>-992800</v>
       </c>
       <c r="F91" s="3">
-        <v>-732700</v>
+        <v>-717000</v>
       </c>
       <c r="G91" s="3">
-        <v>-738700</v>
+        <v>-722900</v>
       </c>
       <c r="H91" s="3">
-        <v>-677600</v>
+        <v>-663100</v>
       </c>
       <c r="I91" s="3">
-        <v>-678500</v>
+        <v>-664000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1191800</v>
+        <v>-1166300</v>
       </c>
       <c r="K91" s="3">
         <v>-841000</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-809300</v>
+        <v>-792000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1024000</v>
+        <v>-1002100</v>
       </c>
       <c r="F94" s="3">
-        <v>-725900</v>
+        <v>-710400</v>
       </c>
       <c r="G94" s="3">
-        <v>-724100</v>
+        <v>-708600</v>
       </c>
       <c r="H94" s="3">
-        <v>-646300</v>
+        <v>-632400</v>
       </c>
       <c r="I94" s="3">
-        <v>179900</v>
+        <v>176000</v>
       </c>
       <c r="J94" s="3">
-        <v>168700</v>
+        <v>165100</v>
       </c>
       <c r="K94" s="3">
         <v>-1210200</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,7 +3060,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +3090,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-538600</v>
+        <v>-527000</v>
       </c>
       <c r="E100" s="3">
-        <v>-192000</v>
+        <v>-187900</v>
       </c>
       <c r="F100" s="3">
-        <v>-128400</v>
+        <v>-125600</v>
       </c>
       <c r="G100" s="3">
-        <v>-549900</v>
+        <v>-538100</v>
       </c>
       <c r="H100" s="3">
-        <v>-401100</v>
+        <v>-392500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1084100</v>
+        <v>-1060900</v>
       </c>
       <c r="J100" s="3">
-        <v>-934600</v>
+        <v>-914600</v>
       </c>
       <c r="K100" s="3">
         <v>-581200</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3253,52 +3218,52 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
         <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H101" s="3">
         <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="K101" s="3">
         <v>-3500</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-239000</v>
+        <v>-233900</v>
       </c>
       <c r="E102" s="3">
-        <v>-323000</v>
+        <v>-316100</v>
       </c>
       <c r="F102" s="3">
-        <v>295200</v>
+        <v>288900</v>
       </c>
       <c r="G102" s="3">
-        <v>-210300</v>
+        <v>-205800</v>
       </c>
       <c r="H102" s="3">
-        <v>73600</v>
+        <v>72000</v>
       </c>
       <c r="I102" s="3">
-        <v>317200</v>
+        <v>310400</v>
       </c>
       <c r="J102" s="3">
-        <v>536500</v>
+        <v>525100</v>
       </c>
       <c r="K102" s="3">
         <v>-376700</v>
